--- a/lib/PHPExcel/templates/Prestart.xlsx
+++ b/lib/PHPExcel/templates/Prestart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM\lib\PHPExcel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM-TEST\lib\PHPExcel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A7186B26-C16D-43D4-8238-491FAC26F30B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C533C-6B96-4238-A94A-C332E2935639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="9255" windowHeight="5505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,6 +164,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -173,6 +174,7 @@
         <sz val="8"/>
         <color rgb="FFA5A5A5"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Checklist Préparation + Vérifications Journalières Des Essais</t>
     </r>
@@ -329,6 +331,7 @@
       <sz val="10"/>
       <color rgb="FF223962"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -346,11 +349,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFA5A5A5"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1416,6 +1421,15 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1469,15 +1483,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1502,45 +1507,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="742950" cy="762000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC06435-429F-4918-A179-5B2F63300B44}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="314325"/>
-          <a:ext cx="742950" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>57977</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1561,7 +1527,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1584,6 +1550,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323022</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>79</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42FD85E2-5740-4459-9C54-A3A33862899A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="770283" cy="762079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1990,7 +2017,7 @@
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2021,7 +2048,7 @@
       <c r="N2" s="84"/>
       <c r="O2" s="84"/>
       <c r="P2" s="85"/>
-      <c r="Q2" s="129" t="s">
+      <c r="Q2" s="111" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2058,7 +2085,7 @@
         <v>48</v>
       </c>
       <c r="P3" s="86"/>
-      <c r="Q3" s="129"/>
+      <c r="Q3" s="111"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92"/>
@@ -2078,7 +2105,7 @@
       <c r="M4" s="92"/>
       <c r="O4" s="92"/>
       <c r="P4" s="92"/>
-      <c r="Q4" s="129"/>
+      <c r="Q4" s="111"/>
       <c r="W4" s="87"/>
       <c r="X4" s="84"/>
     </row>
@@ -2102,7 +2129,7 @@
       </c>
       <c r="L5" s="100"/>
       <c r="M5" s="94"/>
-      <c r="Q5" s="129"/>
+      <c r="Q5" s="111"/>
       <c r="W5" s="100"/>
       <c r="X5" s="94"/>
     </row>
@@ -2139,7 +2166,7 @@
         <v>32</v>
       </c>
       <c r="P6" s="86"/>
-      <c r="Q6" s="129"/>
+      <c r="Q6" s="111"/>
       <c r="W6" s="100"/>
       <c r="X6" s="81"/>
     </row>
@@ -2176,7 +2203,7 @@
         <v>24</v>
       </c>
       <c r="P7" s="92"/>
-      <c r="Q7" s="129"/>
+      <c r="Q7" s="111"/>
       <c r="W7" s="100"/>
       <c r="X7" s="94"/>
     </row>
@@ -2198,12 +2225,12 @@
         <v>3</v>
       </c>
       <c r="H9" s="105"/>
-      <c r="I9" s="130" t="s">
+      <c r="I9" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
       <c r="M9" s="105" t="s">
         <v>9</v>
       </c>
@@ -3630,8 +3657,8 @@
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
       <c r="F6" s="73"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -3640,9 +3667,9 @@
       <c r="L6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
     </row>
     <row r="7" spans="1:17" s="10" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
@@ -3662,8 +3689,8 @@
       <c r="B8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="14"/>
       <c r="F8" s="26" t="s">
         <v>11</v>
@@ -3735,8 +3762,8 @@
         <v>12</v>
       </c>
       <c r="B11" s="45"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="78"/>
       <c r="F11" s="40"/>
       <c r="G11" s="39"/>
@@ -3762,8 +3789,8 @@
         <v>13</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="79"/>
       <c r="F12" s="42"/>
       <c r="G12" s="41"/>
@@ -3789,8 +3816,8 @@
         <v>14</v>
       </c>
       <c r="B13" s="47"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="80"/>
       <c r="F13" s="44"/>
       <c r="G13" s="43"/>
@@ -3919,596 +3946,596 @@
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="124"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="127"/>
       <c r="F19" s="61"/>
       <c r="G19" s="71"/>
       <c r="H19" s="57"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="124"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="127"/>
       <c r="N19" s="61"/>
       <c r="O19" s="62"/>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="121"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="124"/>
       <c r="F20" s="64"/>
       <c r="G20" s="69"/>
       <c r="H20" s="58"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="121"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="124"/>
       <c r="N20" s="64"/>
       <c r="O20" s="65"/>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="121"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="64"/>
       <c r="G21" s="69"/>
       <c r="H21" s="58"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="121"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="124"/>
       <c r="N21" s="64"/>
       <c r="O21" s="65"/>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="121"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="64"/>
       <c r="G22" s="69"/>
       <c r="H22" s="58"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="121"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="124"/>
       <c r="N22" s="64"/>
       <c r="O22" s="65"/>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="63"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="121"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="64"/>
       <c r="G23" s="69"/>
       <c r="H23" s="58"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="121"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="124"/>
       <c r="N23" s="64"/>
       <c r="O23" s="65"/>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="63"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="121"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="64"/>
       <c r="G24" s="69"/>
       <c r="H24" s="58"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="121"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="124"/>
       <c r="N24" s="64"/>
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="121"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="124"/>
       <c r="F25" s="64"/>
       <c r="G25" s="69"/>
       <c r="H25" s="58"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="121"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="124"/>
       <c r="N25" s="64"/>
       <c r="O25" s="65"/>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="121"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="64"/>
       <c r="G26" s="69"/>
       <c r="H26" s="58"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="121"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="124"/>
       <c r="N26" s="64"/>
       <c r="O26" s="65"/>
     </row>
     <row r="27" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="121"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="64"/>
       <c r="G27" s="69"/>
       <c r="H27" s="58"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="121"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="124"/>
       <c r="N27" s="64"/>
       <c r="O27" s="65"/>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="121"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="64"/>
       <c r="G28" s="69"/>
       <c r="H28" s="58"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="121"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="124"/>
       <c r="N28" s="64"/>
       <c r="O28" s="65"/>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="121"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="124"/>
       <c r="F29" s="64"/>
       <c r="G29" s="69"/>
       <c r="H29" s="58"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="121"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="124"/>
       <c r="N29" s="64"/>
       <c r="O29" s="65"/>
     </row>
     <row r="30" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="121"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="124"/>
       <c r="F30" s="64"/>
       <c r="G30" s="69"/>
       <c r="H30" s="58"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="121"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="124"/>
       <c r="N30" s="64"/>
       <c r="O30" s="65"/>
     </row>
     <row r="31" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="121"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="124"/>
       <c r="F31" s="64"/>
       <c r="G31" s="69"/>
       <c r="H31" s="58"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="121"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="124"/>
       <c r="N31" s="64"/>
       <c r="O31" s="65"/>
     </row>
     <row r="32" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="121"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="124"/>
       <c r="F32" s="64"/>
       <c r="G32" s="69"/>
       <c r="H32" s="58"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="121"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="124"/>
       <c r="N32" s="64"/>
       <c r="O32" s="65"/>
     </row>
     <row r="33" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="121"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="124"/>
       <c r="F33" s="64"/>
       <c r="G33" s="69"/>
       <c r="H33" s="58"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="121"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="124"/>
       <c r="N33" s="64"/>
       <c r="O33" s="65"/>
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="121"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="124"/>
       <c r="F34" s="64"/>
       <c r="G34" s="69"/>
       <c r="H34" s="58"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="121"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="124"/>
       <c r="N34" s="64"/>
       <c r="O34" s="65"/>
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="121"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="124"/>
       <c r="F35" s="64"/>
       <c r="G35" s="69"/>
       <c r="H35" s="58"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="121"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="124"/>
       <c r="N35" s="64"/>
       <c r="O35" s="65"/>
     </row>
     <row r="36" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="121"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="124"/>
       <c r="F36" s="64"/>
       <c r="G36" s="69"/>
       <c r="H36" s="58"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="121"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="124"/>
       <c r="N36" s="64"/>
       <c r="O36" s="65"/>
     </row>
     <row r="37" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="121"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="124"/>
       <c r="F37" s="64"/>
       <c r="G37" s="69"/>
       <c r="H37" s="58"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="122"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="121"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="124"/>
       <c r="N37" s="64"/>
       <c r="O37" s="65"/>
     </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
-      <c r="B38" s="122"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="121"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="124"/>
       <c r="F38" s="64"/>
       <c r="G38" s="69"/>
       <c r="H38" s="58"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="121"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="125"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="124"/>
       <c r="N38" s="64"/>
       <c r="O38" s="65"/>
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
-      <c r="B39" s="122"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="121"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="124"/>
       <c r="F39" s="64"/>
       <c r="G39" s="69"/>
       <c r="H39" s="58"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="121"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="120"/>
-      <c r="M39" s="121"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="125"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="124"/>
       <c r="N39" s="64"/>
       <c r="O39" s="65"/>
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
-      <c r="B40" s="122"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="121"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="124"/>
       <c r="F40" s="64"/>
       <c r="G40" s="69"/>
       <c r="H40" s="58"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="121"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="121"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="124"/>
       <c r="N40" s="64"/>
       <c r="O40" s="65"/>
     </row>
     <row r="41" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="121"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="124"/>
       <c r="F41" s="64"/>
       <c r="G41" s="69"/>
       <c r="H41" s="58"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="122"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="121"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="124"/>
       <c r="N41" s="64"/>
       <c r="O41" s="65"/>
     </row>
     <row r="42" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="121"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="124"/>
       <c r="F42" s="64"/>
       <c r="G42" s="69"/>
       <c r="H42" s="58"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="121"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="121"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="124"/>
       <c r="N42" s="64"/>
       <c r="O42" s="65"/>
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="121"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="124"/>
       <c r="F43" s="64"/>
       <c r="G43" s="69"/>
       <c r="H43" s="58"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="121"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="124"/>
       <c r="N43" s="64"/>
       <c r="O43" s="65"/>
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
-      <c r="B44" s="122"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="121"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="124"/>
       <c r="F44" s="64"/>
       <c r="G44" s="69"/>
       <c r="H44" s="58"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="121"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="124"/>
       <c r="N44" s="64"/>
       <c r="O44" s="65"/>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
-      <c r="B45" s="122"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="121"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="124"/>
       <c r="F45" s="64"/>
       <c r="G45" s="69"/>
       <c r="H45" s="58"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="122"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="121"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="123"/>
+      <c r="M45" s="124"/>
       <c r="N45" s="64"/>
       <c r="O45" s="65"/>
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
-      <c r="B46" s="122"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="121"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="124"/>
       <c r="F46" s="64"/>
       <c r="G46" s="69"/>
       <c r="H46" s="58"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="120"/>
-      <c r="M46" s="121"/>
+      <c r="I46" s="123"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="123"/>
+      <c r="M46" s="124"/>
       <c r="N46" s="64"/>
       <c r="O46" s="65"/>
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="122"/>
-      <c r="E47" s="121"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="124"/>
       <c r="F47" s="64"/>
       <c r="G47" s="69"/>
       <c r="H47" s="58"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="121"/>
-      <c r="K47" s="122"/>
-      <c r="L47" s="120"/>
-      <c r="M47" s="121"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="123"/>
+      <c r="M47" s="124"/>
       <c r="N47" s="64"/>
       <c r="O47" s="65"/>
     </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
-      <c r="B48" s="122"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="121"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="124"/>
       <c r="F48" s="64"/>
       <c r="G48" s="69"/>
       <c r="H48" s="58"/>
-      <c r="I48" s="120"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="122"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="121"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="123"/>
+      <c r="M48" s="124"/>
       <c r="N48" s="64"/>
       <c r="O48" s="65"/>
     </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="121"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="124"/>
       <c r="F49" s="64"/>
       <c r="G49" s="69"/>
       <c r="H49" s="58"/>
-      <c r="I49" s="120"/>
-      <c r="J49" s="121"/>
-      <c r="K49" s="122"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="121"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="123"/>
+      <c r="M49" s="124"/>
       <c r="N49" s="64"/>
       <c r="O49" s="65"/>
     </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
-      <c r="B50" s="122"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="121"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="124"/>
       <c r="F50" s="64"/>
       <c r="G50" s="69"/>
       <c r="H50" s="58"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="121"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="121"/>
+      <c r="I50" s="123"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="123"/>
+      <c r="M50" s="124"/>
       <c r="N50" s="64"/>
       <c r="O50" s="65"/>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
-      <c r="B51" s="122"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="121"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="124"/>
       <c r="F51" s="64"/>
       <c r="G51" s="69"/>
       <c r="H51" s="58"/>
-      <c r="I51" s="120"/>
-      <c r="J51" s="121"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="121"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="123"/>
+      <c r="M51" s="124"/>
       <c r="N51" s="64"/>
       <c r="O51" s="65"/>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
-      <c r="B52" s="122"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="121"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="124"/>
       <c r="F52" s="64"/>
       <c r="G52" s="69"/>
       <c r="H52" s="58"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="121"/>
-      <c r="K52" s="122"/>
-      <c r="L52" s="120"/>
-      <c r="M52" s="121"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="123"/>
+      <c r="M52" s="124"/>
       <c r="N52" s="64"/>
       <c r="O52" s="65"/>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="66"/>
-      <c r="B53" s="127"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="129"/>
       <c r="F53" s="67"/>
       <c r="G53" s="70"/>
       <c r="H53" s="59"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="126"/>
-      <c r="K53" s="127"/>
-      <c r="L53" s="125"/>
-      <c r="M53" s="126"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="129"/>
       <c r="N53" s="67"/>
       <c r="O53" s="68"/>
     </row>
